--- a/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T08:45:26+00:00</t>
+    <t>2023-10-14T08:54:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T08:54:13+00:00</t>
+    <t>2023-10-14T09:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
+++ b/ig/sd-ajout-lien-vers-swagger/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T09:09:11+00:00</t>
+    <t>2023-10-14T09:17:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
